--- a/data/output/FV2310_FV2304/INVOIC/31001.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="304">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="304">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1075,6 +1075,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U178" totalsRowShown="0">
+  <autoFilter ref="A1:U178"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1364,7 +1394,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9385,5 +9418,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/INVOIC/31001.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31001.xlsx
@@ -1557,7 +1557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1580,6 +1580,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1588,6 +1591,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2028,7 +2034,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2364,7 +2370,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2598,7 +2604,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2786,7 +2792,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -2974,7 +2980,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3158,7 +3164,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3342,7 +3348,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3432,7 +3438,7 @@
         <v>282</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2"/>
@@ -3572,7 +3578,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3760,7 +3766,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4472,7 +4478,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4714,7 +4720,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4900,7 +4906,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5260,7 +5266,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5974,7 +5980,7 @@
         <v>286</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6204,20 +6210,20 @@
       <c r="B88" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8" t="s">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>299</v>
       </c>
       <c r="M88" s="5"/>
@@ -6235,25 +6241,25 @@
       <c r="A89" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>299</v>
       </c>
       <c r="M89" s="5"/>
@@ -6271,31 +6277,31 @@
       <c r="A90" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8" t="s">
+      <c r="F90" s="9"/>
+      <c r="G90" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8" t="s">
+      <c r="H90" s="9"/>
+      <c r="I90" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9" t="s">
+      <c r="J90" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10" t="s">
         <v>299</v>
       </c>
       <c r="M90" s="5"/>
@@ -6313,29 +6319,29 @@
       <c r="A91" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>299</v>
       </c>
       <c r="M91" s="5"/>
@@ -6353,31 +6359,31 @@
       <c r="A92" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K92" s="8" t="s">
+      <c r="K92" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="L92" s="9" t="s">
+      <c r="L92" s="10" t="s">
         <v>299</v>
       </c>
       <c r="M92" s="5"/>
@@ -6395,29 +6401,29 @@
       <c r="A93" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8" t="s">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="9" t="s">
+      <c r="K93" s="9"/>
+      <c r="L93" s="10" t="s">
         <v>299</v>
       </c>
       <c r="M93" s="5"/>
@@ -6435,29 +6441,29 @@
       <c r="A94" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8" t="s">
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J94" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9" t="s">
+      <c r="J94" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="10" t="s">
         <v>299</v>
       </c>
       <c r="M94" s="5"/>
@@ -6475,29 +6481,29 @@
       <c r="A95" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8" t="s">
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J95" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="J95" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>299</v>
       </c>
       <c r="M95" s="5"/>
@@ -6525,25 +6531,25 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11" t="s">
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="V96" s="11"/>
+      <c r="V96" s="13"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6559,27 +6565,27 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11" t="s">
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="V97" s="11"/>
+      <c r="V97" s="13"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="5" t="s">
@@ -6595,33 +6601,33 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="10" t="s">
+      <c r="L98" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M98" s="11" t="s">
+      <c r="M98" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11" t="s">
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11" t="s">
+      <c r="S98" s="13"/>
+      <c r="T98" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U98" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="V98" s="11"/>
+      <c r="U98" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="V98" s="13"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -6637,31 +6643,31 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P99" s="11" t="s">
+      <c r="P99" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11" t="s">
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="U99" s="11" t="s">
+      <c r="U99" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="V99" s="11"/>
+      <c r="V99" s="13"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -6677,31 +6683,31 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="10" t="s">
+      <c r="L100" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M100" s="11" t="s">
+      <c r="M100" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N100" s="11" t="s">
+      <c r="N100" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O100" s="11" t="s">
+      <c r="O100" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P100" s="11" t="s">
+      <c r="P100" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11" t="s">
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="U100" s="11" t="s">
+      <c r="U100" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="V100" s="11" t="s">
+      <c r="V100" s="13" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6719,31 +6725,31 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P101" s="11" t="s">
+      <c r="P101" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11" t="s">
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="U101" s="11" t="s">
+      <c r="U101" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="V101" s="11"/>
+      <c r="V101" s="13"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -6759,31 +6765,31 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P102" s="11" t="s">
+      <c r="P102" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11" t="s">
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="U102" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="V102" s="11"/>
+      <c r="U102" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -6799,31 +6805,31 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11" t="s">
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="U103" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="V103" s="11"/>
+      <c r="U103" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="V103" s="13"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="2" t="s">
@@ -6848,7 +6854,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -6998,7 +7004,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7240,7 +7246,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7376,7 +7382,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7578,7 +7584,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7824,7 +7830,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8034,7 +8040,7 @@
         <v>294</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8238,7 +8244,7 @@
         <v>294</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8438,7 +8444,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8626,7 +8632,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -8814,7 +8820,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9218,7 +9224,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N152" s="2"/>
@@ -9306,7 +9312,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9494,7 +9500,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -9682,7 +9688,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10088,7 +10094,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10238,7 +10244,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -10386,7 +10392,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N176" s="2"/>
